--- a/evaluation/doc/bench.xlsx
+++ b/evaluation/doc/bench.xlsx
@@ -648,34 +648,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.34921494315105578</c:v>
+                  <c:v>0.17054683270167839</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44782337013122264</c:v>
+                  <c:v>0.21870443657571337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46813761068369864</c:v>
+                  <c:v>0.22862534475250398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36901424566622809</c:v>
+                  <c:v>0.18021625951141371</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39947974730583424</c:v>
+                  <c:v>0.19509476031215159</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38799326275264684</c:v>
+                  <c:v>0.18948508180943216</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19413092550790068</c:v>
+                  <c:v>9.4808126410835206E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22103423460470853</c:v>
+                  <c:v>0.10794695178369486</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.40843465045592708</c:v>
+                  <c:v>0.19946808510638298</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42492917847025496</c:v>
+                  <c:v>0.207523552276171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,34 +703,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.0943867415857884</c:v>
+                  <c:v>1.3479766161530167</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5645635828702193</c:v>
+                  <c:v>1.5527950310559007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.820334944993343</c:v>
+                  <c:v>1.6642141405647817</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7316906228610542</c:v>
+                  <c:v>1.6255989048596853</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.656115879828326</c:v>
+                  <c:v>1.5926770386266094</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7584447814697368</c:v>
+                  <c:v>1.6372535502550669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4102708450616128</c:v>
+                  <c:v>1.4855820354037657</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.552948843271424</c:v>
+                  <c:v>1.5477354187031607</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.60486643745041</c:v>
+                  <c:v>1.5703517587939697</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3229719022368505</c:v>
+                  <c:v>1.4475528737733894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -758,34 +758,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>23.582975331059835</c:v>
+                  <c:v>9.9774126400637773</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.382599217162959</c:v>
+                  <c:v>11.161868899568946</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.808648422811782</c:v>
+                  <c:v>11.76519740965114</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.651062684960991</c:v>
+                  <c:v>12.121603443637342</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.695797544243959</c:v>
+                  <c:v>12.986683576410908</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>11.7602839841303</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>14.942955691164766</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>10.156440196564628</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>10.756816119944613</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>11.530941290883966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1307,16 +1307,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1605,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,7 +1954,7 @@
         <v>10</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1973,8 +1973,8 @@
         <v>23.75</v>
       </c>
       <c r="E28">
-        <f>1.1*1024</f>
-        <v>1126.4000000000001</v>
+        <f>2.2*1024</f>
+        <v>2252.8000000000002</v>
       </c>
       <c r="F28">
         <f>E28/F27</f>
@@ -1986,22 +1986,22 @@
         <v>18.47</v>
       </c>
       <c r="B29">
-        <f>(B$7)/A29</f>
-        <v>0.34921494315105578</v>
+        <f>(B$28)/A29</f>
+        <v>0.17054683270167839</v>
       </c>
       <c r="C29">
         <v>17.619</v>
       </c>
       <c r="D29">
-        <f>(D$7)/C29</f>
-        <v>3.0943867415857884</v>
+        <f t="shared" ref="D29:D38" si="4">(D$28)/C29</f>
+        <v>1.3479766161530167</v>
       </c>
       <c r="E29">
         <v>22.579000000000001</v>
       </c>
       <c r="F29">
-        <f>(F$7)/E29</f>
-        <v>23.582975331059835</v>
+        <f t="shared" ref="F29:F38" si="5">(F$28)/E29</f>
+        <v>9.9774126400637773</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2009,22 +2009,22 @@
         <v>14.403</v>
       </c>
       <c r="B30">
-        <f>(B$7)/A30</f>
-        <v>0.44782337013122264</v>
+        <f t="shared" ref="B30:B38" si="6">(B$28)/A30</f>
+        <v>0.21870443657571337</v>
       </c>
       <c r="C30">
         <v>15.295</v>
       </c>
       <c r="D30">
-        <f>(D$7)/C30</f>
-        <v>3.5645635828702193</v>
+        <f t="shared" si="4"/>
+        <v>1.5527950310559007</v>
       </c>
       <c r="E30">
         <v>20.183</v>
       </c>
       <c r="F30">
-        <f>(F$7)/E30</f>
-        <v>26.382599217162959</v>
+        <f t="shared" si="5"/>
+        <v>11.161868899568946</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2032,22 +2032,22 @@
         <v>13.778</v>
       </c>
       <c r="B31">
-        <f>(B$7)/A31</f>
-        <v>0.46813761068369864</v>
+        <f t="shared" si="6"/>
+        <v>0.22862534475250398</v>
       </c>
       <c r="C31">
         <v>14.271000000000001</v>
       </c>
       <c r="D31">
-        <f>(D$7)/C31</f>
-        <v>3.820334944993343</v>
+        <f t="shared" si="4"/>
+        <v>1.6642141405647817</v>
       </c>
       <c r="E31">
         <v>19.148</v>
       </c>
       <c r="F31">
-        <f>(F$7)/E31</f>
-        <v>27.808648422811782</v>
+        <f t="shared" si="5"/>
+        <v>11.76519740965114</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2055,22 +2055,22 @@
         <v>17.478999999999999</v>
       </c>
       <c r="B32">
-        <f>(B$7)/A32</f>
-        <v>0.36901424566622809</v>
+        <f t="shared" si="6"/>
+        <v>0.18021625951141371</v>
       </c>
       <c r="C32">
         <v>14.61</v>
       </c>
       <c r="D32">
-        <f>(D$7)/C32</f>
-        <v>3.7316906228610542</v>
+        <f t="shared" si="4"/>
+        <v>1.6255989048596853</v>
       </c>
       <c r="E32">
         <v>18.585000000000001</v>
       </c>
       <c r="F32">
-        <f>(F$7)/E32</f>
-        <v>28.651062684960991</v>
+        <f t="shared" si="5"/>
+        <v>12.121603443637342</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2078,22 +2078,22 @@
         <v>16.146000000000001</v>
       </c>
       <c r="B33">
-        <f>(B$7)/A33</f>
-        <v>0.39947974730583424</v>
+        <f t="shared" si="6"/>
+        <v>0.19509476031215159</v>
       </c>
       <c r="C33">
         <v>14.912000000000001</v>
       </c>
       <c r="D33">
-        <f>(D$7)/C33</f>
-        <v>3.656115879828326</v>
+        <f t="shared" si="4"/>
+        <v>1.5926770386266094</v>
       </c>
       <c r="E33">
         <v>17.347000000000001</v>
       </c>
       <c r="F33">
-        <f>(F$7)/E33</f>
-        <v>30.695797544243959</v>
+        <f t="shared" si="5"/>
+        <v>12.986683576410908</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2101,19 +2101,22 @@
         <v>16.623999999999999</v>
       </c>
       <c r="B34">
-        <f>(B$7)/A34</f>
-        <v>0.38799326275264684</v>
+        <f t="shared" si="6"/>
+        <v>0.18948508180943216</v>
       </c>
       <c r="C34">
         <v>14.506</v>
       </c>
       <c r="D34">
-        <f>(D$7)/C34</f>
-        <v>3.7584447814697368</v>
-      </c>
-      <c r="F34" t="e">
-        <f>(F$7)/E34</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="4"/>
+        <v>1.6372535502550669</v>
+      </c>
+      <c r="E34">
+        <v>19.155999999999999</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="5"/>
+        <v>11.7602839841303</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2121,19 +2124,22 @@
         <v>33.225000000000001</v>
       </c>
       <c r="B35">
-        <f>(B$7)/A35</f>
-        <v>0.19413092550790068</v>
+        <f t="shared" si="6"/>
+        <v>9.4808126410835206E-2</v>
       </c>
       <c r="C35">
         <v>15.987</v>
       </c>
       <c r="D35">
-        <f>(D$7)/C35</f>
-        <v>3.4102708450616128</v>
-      </c>
-      <c r="F35" t="e">
-        <f>(F$7)/E35</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="4"/>
+        <v>1.4855820354037657</v>
+      </c>
+      <c r="E35">
+        <v>15.076000000000001</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>14.942955691164766</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2141,19 +2147,22 @@
         <v>29.181000000000001</v>
       </c>
       <c r="B36">
-        <f>(B$7)/A36</f>
-        <v>0.22103423460470853</v>
+        <f t="shared" si="6"/>
+        <v>0.10794695178369486</v>
       </c>
       <c r="C36">
         <v>15.345000000000001</v>
       </c>
       <c r="D36">
-        <f>(D$7)/C36</f>
-        <v>3.552948843271424</v>
-      </c>
-      <c r="F36" t="e">
-        <f>(F$7)/E36</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="4"/>
+        <v>1.5477354187031607</v>
+      </c>
+      <c r="E36">
+        <v>22.181000000000001</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="5"/>
+        <v>10.156440196564628</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2161,19 +2170,22 @@
         <v>15.792</v>
       </c>
       <c r="B37">
-        <f>(B$7)/A37</f>
-        <v>0.40843465045592708</v>
+        <f t="shared" si="6"/>
+        <v>0.19946808510638298</v>
       </c>
       <c r="C37">
         <v>15.124000000000001</v>
       </c>
       <c r="D37">
-        <f>(D$7)/C37</f>
-        <v>3.60486643745041</v>
-      </c>
-      <c r="F37" t="e">
-        <f>(F$7)/E37</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="4"/>
+        <v>1.5703517587939697</v>
+      </c>
+      <c r="E37">
+        <v>20.943000000000001</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="5"/>
+        <v>10.756816119944613</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2181,19 +2193,22 @@
         <v>15.179</v>
       </c>
       <c r="B38">
-        <f>(B$7)/A38</f>
-        <v>0.42492917847025496</v>
+        <f t="shared" si="6"/>
+        <v>0.207523552276171</v>
       </c>
       <c r="C38">
         <v>16.407</v>
       </c>
       <c r="D38">
-        <f>(D$7)/C38</f>
-        <v>3.3229719022368505</v>
-      </c>
-      <c r="F38" t="e">
-        <f>(F$7)/E38</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="4"/>
+        <v>1.4475528737733894</v>
+      </c>
+      <c r="E38">
+        <v>19.536999999999999</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="5"/>
+        <v>11.530941290883966</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
